--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117242.8569582778</v>
+        <v>20831109.60381347</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117242.8569582778</v>
+        <v>20831109.60381347</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7240.952595355141</v>
+        <v>801966.921050056</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7240.952595355141</v>
+        <v>801966.921050056</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188778430.994459</v>
+        <v>48192516.51254629</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9253.094203826317</v>
+        <v>1066555.053392296</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17709.69048071803</v>
+        <v>2038853.141736622</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26286.88748239277</v>
+        <v>3011151.230080939</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35008.07611914029</v>
+        <v>3984968.599039624</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43893.28732315244</v>
+        <v>4958614.807420218</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52434.32692652191</v>
+        <v>5932261.015800898</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61184.01722652295</v>
+        <v>6905907.224181567</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70042.7079091935</v>
+        <v>7879553.43256228</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78675.91884985018</v>
+        <v>8812595.525485311</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87249.25695434633</v>
+        <v>9788025.501881815</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95756.42516713857</v>
+        <v>10760044.2374493</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104141.2464447408</v>
+        <v>11731068.1296502</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112458.374359822</v>
+        <v>12702215.49241769</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121229.7000668268</v>
+        <v>13615058.29958186</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130463.2222193099</v>
+        <v>14475552.59591536</v>
       </c>
     </row>
   </sheetData>
@@ -27049,16 +27049,16 @@
         <v>374.0000000000551</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49.00000000017161</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>360.9999999998283</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
